--- a/example-test-forms/SISTEMA SALE04 - Data Collection & Quote.xlsx
+++ b/example-test-forms/SISTEMA SALE04 - Data Collection & Quote.xlsx
@@ -812,26 +812,26 @@
   </si>
   <si>
     <t>var code = tw.record_information.billing_currency.value.substring(0,3);
-if(code=="KES"){
-tw.record_information.country.value="Kenya";
+if(code==”KES”){
+tw.record_information.country.value=”Kenya”;
 }
-else if(code=="INR") {
-tw.record_information.country.value="India";
+else if(code==”INR”) {
+tw.record_information.country.value=”India”;
 }
-else if(code=="MXN") {
-tw.record_information.country.value="Mexico";
+else if(code==”MXN”) {
+tw.record_information.country.value=”Mexico”;
 }
-else if(code=="NIO") {
-tw.record_information.country.value="Nicaragua";
+else if(code==”NIO”) {
+tw.record_information.country.value=”Nicaragua”;
 }
-else if(code=="COP") {
-tw.record_information.country.value="Colombia";
+else if(code==”COP”) {
+tw.record_information.country.value=”Colombia”;
 }
-else if(code=="UGX") {
-tw.record_information.country.value="Uganda";
+else if(code==”UGX”) {
+tw.record_information.country.value=”Uganda”;
 }
-else if(code=="ZMW") {
-tw.record_information.country.value="Zambia";
+else if(code==”ZMW”) {
+tw.record_information.country.value=”Zambia”;
 }</t>
   </si>
   <si>
